--- a/class_0626/tase_case.xlsx
+++ b/class_0626/tase_case.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mantis/Documents/Test-demo/class_0626/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E65D5A72-E750-2942-90FD-D320BA5B5549}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="460" windowWidth="26680" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="26680" xWindow="11420" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -62,33 +56,81 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'pwd' : '123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>不输入手机号</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>{'mobilephone' : '', 'pwd' : '123456'}</t>
   </si>
   <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>输入错误格式的手机号</t>
   </si>
   <si>
+    <t>{'mobilephone' : '1856575', 'pwd' : '123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
+  </si>
+  <si>
     <t>不输入密码</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'pwd' : ''}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
+  </si>
+  <si>
     <t>输入错误格式的密码</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'pwd' : '12345'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20108', 'data': None, 'msg': '密码长度必须为6~18'}</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18856575', 'pwd' : '123456'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
+  </si>
+  <si>
     <t>输入不匹配的密码</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'pwd' : '147258'}</t>
+  </si>
+  <si>
     <t>正常登陆（ 输入正确的手机号、密码）</t>
   </si>
   <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
+  </si>
+  <si>
     <t>recharge</t>
   </si>
   <si>
@@ -98,10 +140,40 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'amount' : ''}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
+  </si>
+  <si>
     <t>输入超过两位小数的正常金额</t>
   </si>
   <si>
+    <t>{'mobilephone' : '18565752547', 'amount' : '5.555'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
+  </si>
+  <si>
+    <t>正常的充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone' : '18565752547', 'amount' : '500.00'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'id': 13781, 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '18565752547', 'leaveamount': '2500.00', 'type': '1', 'regtime': '2018-07-02 23:52:42.0'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
     <t>输入充值金额为负数</t>
+  </si>
+  <si>
+    <t>{'mobilephone' : '18565752547', 'amount' : '-1.00'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
+  </si>
+  <si>
+    <t>{'mobilephone' : '', 'amount' : '2.00'}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
@@ -176,151 +248,77 @@
   </si>
   <si>
     <t>code=20103，status=0</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '1856575', 'pwd' : '123456'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'pwd' : ''}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'pwd' : '12345'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18856575', 'pwd' : '123456'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'pwd' : '147258'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'pwd' : '123456'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'amount' : ''}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'amount' : '5.555'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'amount' : '-1.00'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>recharge</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '', 'amount' : '2.00'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobilephone' : '18565752547', 'amount' : '500.00'}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常的充值</t>
-    <rPh sb="0" eb="2">
-      <t>chan</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,100 +385,91 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -741,28 +730,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.6640625"/>
+    <col customWidth="1" max="2" min="2" style="7" width="11.33203125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31.1640625"/>
+    <col customWidth="1" max="4" min="4" style="7" width="10.1640625"/>
+    <col customWidth="1" max="5" min="5" style="8" width="31.1640625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="41.6640625"/>
+    <col customWidth="1" max="7" min="7" style="7" width="21.1640625"/>
+    <col customWidth="1" max="8" min="8" style="9" width="33.33203125"/>
+    <col customWidth="1" max="9" min="9" style="9" width="17.1640625"/>
+    <col customWidth="1" max="16384" min="10" style="9" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="22.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="22.5" r="1" s="6" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -791,12 +784,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1">
-      <c r="A2" s="12">
+    <row customHeight="1" ht="40" r="2" spans="1:9">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>10</v>
@@ -804,52 +797,60 @@
       <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>50</v>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="15">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="n">
         <v>10001</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="12">
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="3" spans="1:9">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="15">
+        <v>18</v>
+      </c>
+      <c r="G3" s="15" t="n">
         <v>20103</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="32">
-      <c r="A4" s="12">
+      <c r="H3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="4" spans="1:9">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>11</v>
@@ -858,23 +859,27 @@
         <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="15">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="n">
         <v>20109</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="32">
-      <c r="A5" s="12">
+      <c r="H4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="5" spans="1:9">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>11</v>
@@ -883,444 +888,494 @@
         <v>12</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="15">
+        <v>25</v>
+      </c>
+      <c r="G5" s="15" t="n">
         <v>20103</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="32">
-      <c r="A6" s="12">
+      <c r="H5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="6" spans="1:9">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="15">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="n">
         <v>20108</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="12">
+      <c r="H6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="7" spans="1:9">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>62</v>
+      <c r="E7" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15">
+        <v>18</v>
+      </c>
+      <c r="G7" s="15" t="n">
         <v>20103</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="12">
+      <c r="H7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="8" spans="1:9">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
+      <c r="E8" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="15">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="n">
         <v>20111</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="32">
-      <c r="A9" s="12">
+      <c r="H8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="9" spans="1:9">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="15">
+        <v>25</v>
+      </c>
+      <c r="G9" s="15" t="n">
         <v>20103</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="32">
-      <c r="A10" s="12">
+      <c r="H9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="10" spans="1:9">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="15">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15" t="n">
         <v>20111</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="32">
-      <c r="A11" s="12">
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="11" spans="1:9">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="15">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15" t="n">
         <v>10001</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="32">
-      <c r="A12" s="12">
+      <c r="H11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="12" spans="1:9">
+      <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="15">
+        <v>41</v>
+      </c>
+      <c r="G12" s="15" t="n">
         <v>20115</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="12">
+      <c r="H12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="13" spans="1:9">
+      <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="15">
+        <v>44</v>
+      </c>
+      <c r="G13" s="15" t="n">
         <v>20116</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="32">
-      <c r="A14" s="12">
+      <c r="H13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="14" spans="1:9">
+      <c r="A14" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
+      <c r="E14" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="15">
+        <v>47</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <v>10001</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="32">
-      <c r="A15" s="12">
+      <c r="H14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="15" spans="1:9">
+      <c r="A15" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
+      <c r="E15" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15" t="n">
         <v>20117</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="32">
-      <c r="A16" s="12">
+      <c r="H15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="16" spans="1:9">
+      <c r="A16" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="15">
+        <v>52</v>
+      </c>
+      <c r="G16" s="15" t="n">
         <v>20103</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="17"/>
+      <c r="H16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{61EC60B2-FDB2-0D43-9643-5808F60A8883}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{76D423C3-F022-1B4C-9902-73C1A0FDE146}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{AAA18F3F-CDC2-7C4D-8945-D5B1D43C0CAF}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="73.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="73.6640625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="24.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row customHeight="1" ht="17" r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="32">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="32">
+        <v>60</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="32">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="32">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="J16" s="5" t="s">
-        <v>49</v>
+      <c r="J16" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>